--- a/biology/Botanique/Cladophora_rupestris/Cladophora_rupestris.xlsx
+++ b/biology/Botanique/Cladophora_rupestris/Cladophora_rupestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladophora rupestris est une espèce d'algues vertes de la famille des Cladophoraceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette algue se présente sous forme de touffe de filaments ramifiés, de 5 à 15 cm de longueur, de couleur vert sombre.
 </t>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fixée aux rochers, on la trouve souvent sous les champs de Fucus[1], même en présence de sédiments.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fixée aux rochers, on la trouve souvent sous les champs de Fucus, même en présence de sédiments.
 </t>
         </is>
       </c>
@@ -575,10 +591,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-Décrite sous le nom Conferva rupestris en 1753 par le naturaliste suédois Carl von Linné dans son Species plantarum, cette espèce a été transférée en 1843 par le botaniste allemand Friedrich Traugott Kützing dans le genre Cladophora, qu'il venait de créer[2].
-Étymologie
-Le terme « cladophora » signifie « qui porte des rameaux » en grec ancien et fait allusion aux ramifications des filaments ; quant au terme « rupestris », il signifie en latin « des rochers », référence à l'habitat préférentiel de l'algue[3].
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrite sous le nom Conferva rupestris en 1753 par le naturaliste suédois Carl von Linné dans son Species plantarum, cette espèce a été transférée en 1843 par le botaniste allemand Friedrich Traugott Kützing dans le genre Cladophora, qu'il venait de créer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cladophora_rupestris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cladophora_rupestris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « cladophora » signifie « qui porte des rameaux » en grec ancien et fait allusion aux ramifications des filaments ; quant au terme « rupestris », il signifie en latin « des rochers », référence à l'habitat préférentiel de l'algue.
 </t>
         </is>
       </c>
